--- a/TestNotizen.xlsx
+++ b/TestNotizen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/sussekl_mail_uni-paderborn_de/Documents/07_SoSe 23/Bachelorarbeit/k2extensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54385D1D-EF04-48D7-A38A-4EB4D020C4C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65D19FD2-8C61-4E2D-AC31-3E263B82C6CC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65D19FD2-8C61-4E2D-AC31-3E263B82C6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -200,7 +200,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -520,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D17712-AE7E-44C9-AEDA-4850F27F717D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,46 +771,46 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8">
-        <v>1</v>
-      </c>
-      <c r="H1" s="8">
-        <v>0</v>
-      </c>
-      <c r="I1" s="9">
-        <v>0</v>
-      </c>
-      <c r="J1" s="9">
-        <v>0</v>
-      </c>
-      <c r="K1" s="9">
-        <v>0</v>
-      </c>
-      <c r="L1" s="9">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8">
+        <v>0</v>
+      </c>
+      <c r="K1" s="8">
+        <v>0</v>
+      </c>
+      <c r="L1" s="8">
         <v>0</v>
       </c>
       <c r="M1" s="5">
@@ -828,40 +827,40 @@
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
         <v>0</v>
       </c>
       <c r="M2" s="5">
@@ -878,40 +877,40 @@
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
         <v>0</v>
       </c>
       <c r="M3" s="5">
@@ -928,40 +927,40 @@
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
         <v>0</v>
       </c>
       <c r="M4" s="5">
@@ -1178,52 +1177,52 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="R9">

--- a/TestNotizen.xlsx
+++ b/TestNotizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/sussekl_mail_uni-paderborn_de/Documents/07_SoSe 23/Bachelorarbeit/k2extensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54385D1D-EF04-48D7-A38A-4EB4D020C4C7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D0BCDE-46AA-4419-BECD-95C3BBF85EBC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65D19FD2-8C61-4E2D-AC31-3E263B82C6CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65D19FD2-8C61-4E2D-AC31-3E263B82C6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -203,6 +209,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -218,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +532,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,13 +717,13 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/TestNotizen.xlsx
+++ b/TestNotizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/sussekl_mail_uni-paderborn_de/Documents/07_SoSe 23/Bachelorarbeit/k2extensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D0BCDE-46AA-4419-BECD-95C3BBF85EBC}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59692C49-1F99-462B-BD9C-4B6A992F09CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65D19FD2-8C61-4E2D-AC31-3E263B82C6CC}"/>
   </bookViews>
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -209,8 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -532,7 +538,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +700,7 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -717,13 +723,13 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>16</v>
       </c>
     </row>

--- a/TestNotizen.xlsx
+++ b/TestNotizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/sussekl_mail_uni-paderborn_de/Documents/07_SoSe 23/Bachelorarbeit/k2extensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59692C49-1F99-462B-BD9C-4B6A992F09CE}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{BA651EA6-4B92-4EF9-A585-7BBC2EBCB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B48C1F-30E6-47D9-8C35-2E09F63DB868}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65D19FD2-8C61-4E2D-AC31-3E263B82C6CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>&lt;https://sws.geonames.org/3020251/&gt;</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>&lt;https://www.geonames.org&gt;</t>
+  </si>
+  <si>
+    <t>1100110010001100110010000110110011001001001100000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -217,6 +220,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -535,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D17712-AE7E-44C9-AEDA-4850F27F717D}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,15 +777,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
